--- a/docs/mcode/shr-core-ECOGPerformanceStatus.xlsx
+++ b/docs/mcode/shr-core-ECOGPerformanceStatus.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="398">
   <si>
     <t>Path</t>
   </si>
@@ -204,19 +204,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
   </si>
   <si>
     <t>extensions
@@ -230,312 +309,154 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Unique Id for this particular observation</t>
+  </si>
+  <si>
+    <t>A unique identifier for the simple observation instance.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>OBX.21</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Observation.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Observation.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Observation.meta.security</t>
+    <t>Observation.code.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding {[]} {[]}
 </t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Observation.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>Observation.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>Observation.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>Observation.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Observation.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Observation.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Unique Id for this particular observation</t>
-  </si>
-  <si>
-    <t>A unique identifier for the simple observation instance.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>OBX.21</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
   </si>
   <si>
     <t>Code defined by a terminology system</t>
@@ -792,6 +713,10 @@
     <t>Observation.issued</t>
   </si>
   <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Date/Time this was made available</t>
   </si>
   <si>
@@ -937,25 +862,13 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
   </si>
   <si>
     <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1484,7 +1397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1516,8 +1429,8 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.3515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -1978,21 +1891,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>65</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -2055,7 +1970,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -2063,18 +1978,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -2121,13 +2036,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -2159,7 +2074,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -2167,11 +2082,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2187,19 +2102,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2254,7 +2169,7 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2263,7 +2178,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2271,18 +2186,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2291,19 +2206,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2367,7 +2282,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2375,11 +2290,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2395,19 +2310,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2471,7 +2386,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2479,11 +2394,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2496,22 +2411,22 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2537,13 +2452,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2575,7 +2490,7 @@
         <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>42</v>
@@ -2583,7 +2498,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2603,21 +2518,21 @@
         <v>42</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2641,10 +2556,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2676,18 +2591,18 @@
         <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2695,7 +2610,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>51</v>
@@ -2710,18 +2625,18 @@
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2745,13 +2660,13 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>42</v>
@@ -2780,18 +2695,18 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2814,16 +2729,16 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2849,13 +2764,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2887,49 +2802,49 @@
         <v>42</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>42</v>
       </c>
@@ -2953,13 +2868,13 @@
         <v>42</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>42</v>
@@ -2982,35 +2897,35 @@
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" t="s" s="2">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>42</v>
@@ -3022,17 +2937,15 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>42</v>
@@ -3095,7 +3008,7 @@
         <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>42</v>
@@ -3103,11 +3016,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3126,16 +3039,16 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3199,7 +3112,7 @@
         <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -3207,15 +3120,15 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>41</v>
@@ -3224,24 +3137,26 @@
         <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>42</v>
       </c>
@@ -3277,16 +3192,14 @@
         <v>42</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
@@ -3300,10 +3213,10 @@
         <v>42</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>42</v>
@@ -3311,18 +3224,20 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
@@ -3331,21 +3246,19 @@
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3404,18 +3317,18 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3423,7 +3336,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>51</v>
@@ -3432,24 +3345,22 @@
         <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3473,13 +3384,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3508,29 +3419,29 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>146</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
@@ -3542,16 +3453,16 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3577,13 +3488,13 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3615,15 +3526,15 @@
         <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>155</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3631,7 +3542,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
@@ -3646,24 +3557,26 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>42</v>
@@ -3681,13 +3594,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3716,18 +3629,18 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3747,18 +3660,20 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
@@ -3818,10 +3733,10 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3829,18 +3744,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
@@ -3849,27 +3764,27 @@
         <v>42</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>42</v>
@@ -3922,10 +3837,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3933,7 +3848,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3941,10 +3856,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
@@ -3956,19 +3871,17 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4005,14 +3918,16 @@
         <v>42</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AB24" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
@@ -4026,10 +3941,10 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -4037,17 +3952,15 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
@@ -4062,16 +3975,20 @@
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4130,10 +4047,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4141,7 +4058,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4161,19 +4078,23 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4232,52 +4153,54 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4324,11 +4247,15 @@
       <c r="AD27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE27" s="2"/>
+      <c r="AE27" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4336,18 +4263,18 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>42</v>
+        <v>203</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>42</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4367,29 +4294,27 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>42</v>
@@ -4442,18 +4367,18 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4467,7 +4392,7 @@
         <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>42</v>
@@ -4476,18 +4401,20 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
@@ -4546,18 +4473,18 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>42</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4580,24 +4507,24 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>42</v>
@@ -4650,18 +4577,18 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>42</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4672,7 +4599,7 @@
         <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>42</v>
@@ -4684,17 +4611,17 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4754,18 +4681,18 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>42</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4779,7 +4706,7 @@
         <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>42</v>
@@ -4788,20 +4715,16 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4848,11 +4771,15 @@
       <c r="AD32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE32" s="2"/>
+      <c r="AE32" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4860,10 +4787,10 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4871,7 +4798,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4891,22 +4818,22 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -4931,13 +4858,11 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4960,16 +4885,16 @@
       </c>
       <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -4977,15 +4902,15 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>42</v>
+        <v>253</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>51</v>
@@ -4997,22 +4922,20 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5037,13 +4960,11 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5060,15 +4981,11 @@
       <c r="AD34" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE34" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5076,18 +4993,18 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5110,17 +5027,17 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5180,18 +5097,18 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5202,7 +5119,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5211,22 +5128,22 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5251,13 +5168,11 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5274,11 +5189,15 @@
       <c r="AD36" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE36" s="2"/>
+      <c r="AE36" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG36" s="2"/>
+      <c r="AG36" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5286,18 +5205,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5317,21 +5236,23 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5355,13 +5276,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>281</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5390,18 +5311,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5412,7 +5333,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5421,21 +5342,21 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5482,11 +5403,15 @@
       <c r="AD38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE38" s="2"/>
+      <c r="AE38" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" s="2"/>
+      <c r="AG38" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5494,18 +5419,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>263</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5516,7 +5441,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5525,18 +5450,20 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5585,7 +5512,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5600,10 +5527,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>296</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5611,7 +5538,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5622,7 +5549,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5634,19 +5561,19 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5671,11 +5598,13 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X40" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y40" t="s" s="2">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5692,22 +5621,26 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH40" t="s" s="2">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5715,11 +5648,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>278</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5738,18 +5671,16 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>279</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5773,11 +5704,13 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y41" t="s" s="2">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5806,10 +5739,10 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5817,18 +5750,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -5840,18 +5773,18 @@
         <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>286</v>
+        <v>92</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5910,10 +5843,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>289</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>290</v>
+        <v>137</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5921,43 +5854,41 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>292</v>
+        <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -5981,11 +5912,13 @@
         <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>297</v>
+        <v>42</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>42</v>
@@ -6002,15 +5935,11 @@
       <c r="AD43" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE43" t="s" s="2">
-        <v>291</v>
-      </c>
+      <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG43" s="2"/>
       <c r="AH43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6018,10 +5947,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>299</v>
+        <v>88</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6029,7 +5958,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6052,13 +5981,13 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6114,16 +6043,16 @@
       </c>
       <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>64</v>
+        <v>318</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6131,18 +6060,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6154,17 +6083,15 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>67</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6218,16 +6145,16 @@
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6235,7 +6162,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6246,7 +6173,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6255,22 +6182,22 @@
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>168</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>169</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>170</v>
+        <v>326</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>171</v>
+        <v>327</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6295,13 +6222,13 @@
         <v>42</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6330,10 +6257,10 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6341,7 +6268,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6361,22 +6288,20 @@
         <v>42</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>189</v>
+        <v>332</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6436,10 +6361,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>221</v>
+        <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6447,7 +6372,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6470,20 +6395,16 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6507,13 +6428,13 @@
         <v>42</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
@@ -6542,10 +6463,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6553,7 +6474,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6573,21 +6494,23 @@
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6635,13 +6558,13 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>42</v>
@@ -6650,10 +6573,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6661,7 +6584,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6672,7 +6595,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6684,17 +6607,15 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>321</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6742,15 +6663,11 @@
       <c r="AD50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE50" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG50" s="2"/>
       <c r="AH50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6758,10 +6675,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>326</v>
+        <v>137</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6769,18 +6686,18 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6792,20 +6709,18 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>328</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>329</v>
+        <v>92</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>330</v>
+        <v>139</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6852,26 +6767,22 @@
       <c r="AD51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE51" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="AE51" s="2"/>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG51" s="2"/>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>334</v>
+        <v>42</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6879,38 +6790,40 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -6973,7 +6886,7 @@
         <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -6981,18 +6894,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -7007,21 +6920,23 @@
         <v>67</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>68</v>
+        <v>352</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>69</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>42</v>
+        <v>356</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>42</v>
@@ -7039,13 +6954,13 @@
         <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -7074,10 +6989,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>64</v>
+        <v>359</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7085,40 +7000,38 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>67</v>
+        <v>361</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>362</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7181,7 +7094,7 @@
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>125</v>
+        <v>364</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7189,7 +7102,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7200,7 +7113,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7209,19 +7122,23 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7268,22 +7185,26 @@
       <c r="AD55" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE55" s="2"/>
+      <c r="AE55" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG55" s="2"/>
+      <c r="AG55" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH55" t="s" s="2">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7291,7 +7212,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7314,13 +7235,13 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>342</v>
+        <v>53</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>349</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>350</v>
+        <v>136</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7376,16 +7297,16 @@
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7393,18 +7314,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7416,20 +7337,18 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>353</v>
+        <v>92</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>354</v>
+        <v>139</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7453,13 +7372,13 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>357</v>
+        <v>42</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7488,10 +7407,10 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>359</v>
+        <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7499,41 +7418,41 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>361</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>362</v>
+        <v>96</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7595,7 +7514,7 @@
         <v>42</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7603,7 +7522,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7611,7 +7530,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>51</v>
@@ -7623,19 +7542,21 @@
         <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="N59" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
@@ -7659,13 +7580,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7688,24 +7609,24 @@
       </c>
       <c r="AG59" s="2"/>
       <c r="AH59" t="s" s="2">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>346</v>
+        <v>131</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>369</v>
+        <v>132</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>42</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7716,7 +7637,7 @@
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
@@ -7728,19 +7649,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
+        <v>242</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7788,15 +7709,11 @@
       <c r="AD60" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE60" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="AE60" s="2"/>
       <c r="AF60" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG60" s="2"/>
       <c r="AH60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7804,10 +7721,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7815,7 +7732,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7838,16 +7755,20 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7871,13 +7792,11 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -7900,16 +7819,16 @@
       </c>
       <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
-        <v>42</v>
+        <v>250</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -7917,11 +7836,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -7940,18 +7859,20 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>67</v>
+        <v>299</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>68</v>
+        <v>389</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>69</v>
+        <v>301</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8010,10 +7931,10 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8021,40 +7942,38 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8117,7 +8036,7 @@
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8125,18 +8044,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
@@ -8148,26 +8067,24 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>381</v>
+        <v>92</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>382</v>
+        <v>139</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>385</v>
+        <v>42</v>
       </c>
       <c r="R64" t="s" s="2">
         <v>42</v>
@@ -8185,13 +8102,13 @@
         <v>42</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>386</v>
+        <v>42</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8220,10 +8137,10 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>388</v>
+        <v>137</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8231,38 +8148,40 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>390</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>391</v>
+        <v>96</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8325,7 +8244,7 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>393</v>
+        <v>88</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8333,7 +8252,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8344,7 +8263,7 @@
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -8353,23 +8272,19 @@
         <v>42</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>395</v>
+        <v>314</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8416,26 +8331,22 @@
       <c r="AD66" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE66" t="s" s="2">
-        <v>394</v>
-      </c>
+      <c r="AE66" s="2"/>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG66" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG66" s="2"/>
       <c r="AH66" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>399</v>
+        <v>318</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8443,7 +8354,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8466,13 +8377,13 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>53</v>
+        <v>313</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8528,16 +8439,16 @@
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8545,18 +8456,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8568,18 +8479,20 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>68</v>
+        <v>324</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8603,13 +8516,13 @@
         <v>42</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>42</v>
+        <v>329</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
@@ -8638,10 +8551,10 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8649,41 +8562,41 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>67</v>
+        <v>332</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>333</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8745,7 +8658,7 @@
         <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>125</v>
+        <v>336</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8753,7 +8666,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8761,7 +8674,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>51</v>
@@ -8773,21 +8686,19 @@
         <v>42</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
@@ -8811,13 +8722,13 @@
         <v>42</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>42</v>
@@ -8840,1165 +8751,23 @@
       </c>
       <c r="AG70" s="2"/>
       <c r="AH70" t="s" s="2">
-        <v>406</v>
+        <v>42</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>162</v>
+        <v>317</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>163</v>
+        <v>340</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE71" s="2"/>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" s="2"/>
-      <c r="AH71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X72" s="2"/>
-      <c r="Y72" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE72" s="2"/>
-      <c r="AF72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG72" s="2"/>
-      <c r="AH72" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE73" s="2"/>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" s="2"/>
-      <c r="AH73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE74" s="2"/>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" s="2"/>
-      <c r="AH74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE76" s="2"/>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" s="2"/>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE77" s="2"/>
-      <c r="AF77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG77" s="2"/>
-      <c r="AH77" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE78" s="2"/>
-      <c r="AF78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG78" s="2"/>
-      <c r="AH78" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE79" s="2"/>
-      <c r="AF79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG79" s="2"/>
-      <c r="AH79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE80" s="2"/>
-      <c r="AF80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG80" s="2"/>
-      <c r="AH80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE81" s="2"/>
-      <c r="AF81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG81" s="2"/>
-      <c r="AH81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AL81" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL81">
+  <autoFilter ref="A1:AL70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10008,7 +8777,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/mcode/shr-core-ECOGPerformanceStatus.xlsx
+++ b/docs/mcode/shr-core-ECOGPerformanceStatus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="399">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
     <t>shr-core-ECOGPerformanceStatus</t>
   </si>
   <si>
-    <t>The Eastern Cooperative Oncology Group (ECOG) performance status grade or score, which indicates a patient’s level of daily functioning and physical ability. Source: LOINC</t>
+    <t>The Eastern Cooperative Oncology Group (ECOG) Performance Status represents the patient's functional status and is used to determine their ability to tolerate therapies in serious illness, specifically for chemotherapy. Source: LOINC</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
@@ -484,10 +484,10 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Fixed_89247-1</t>
-  </si>
-  <si>
-    <t>ECOG Performance Status score</t>
+    <t>Fixed_89262-0</t>
+  </si>
+  <si>
+    <t>ECOG Performance Status [Interpretation]</t>
   </si>
   <si>
     <t>Observation.code.coding.id</t>
@@ -554,7 +554,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="89247-1"/&gt;</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="89262-0"/&gt;</t>
   </si>
   <si>
     <t>C*E.1</t>
@@ -760,17 +760,16 @@
     <t>who.actor</t>
   </si>
   <si>
-    <t>Observation.valueQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Count]]} {[]}
-</t>
+    <t>Observation.valueCodeableConcept</t>
   </si>
   <si>
     <t>Actual result</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/shr/core/vs/ECOGPerformanceStatusVS</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -817,7 +816,10 @@
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
   </si>
   <si>
-    <t>http://loinc.org/vs/LL529-9</t>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>OBX-8</t>
@@ -1430,7 +1432,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="47.11328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -4715,13 +4717,13 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4748,13 +4750,11 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -4960,11 +4960,13 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -4993,10 +4995,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5004,7 +5006,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5030,14 +5032,14 @@
         <v>163</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5097,10 +5099,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5108,7 +5110,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5134,16 +5136,16 @@
         <v>115</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5168,11 +5170,11 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5190,7 +5192,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5205,10 +5207,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5216,7 +5218,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5242,16 +5244,16 @@
         <v>115</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5279,10 +5281,10 @@
         <v>128</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5311,10 +5313,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5322,7 +5324,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5345,16 +5347,16 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5404,7 +5406,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5419,10 +5421,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5430,7 +5432,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5453,16 +5455,16 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5512,7 +5514,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5527,10 +5529,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5538,7 +5540,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5561,19 +5563,19 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5622,7 +5624,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5634,13 +5636,13 @@
         <v>42</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5648,7 +5650,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5750,7 +5752,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5854,11 +5856,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5883,7 +5885,7 @@
         <v>96</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>94</v>
@@ -5958,7 +5960,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5981,13 +5983,13 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6043,16 +6045,16 @@
       </c>
       <c r="AG44" s="2"/>
       <c r="AH44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6060,7 +6062,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6083,13 +6085,13 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6145,16 +6147,16 @@
       </c>
       <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6162,7 +6164,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6188,16 +6190,16 @@
         <v>115</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6225,10 +6227,10 @@
         <v>119</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>42</v>
@@ -6257,10 +6259,10 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6268,7 +6270,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6291,17 +6293,17 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6364,7 +6366,7 @@
         <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6372,7 +6374,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6398,10 +6400,10 @@
         <v>163</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6463,10 +6465,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6474,7 +6476,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6497,19 +6499,19 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6558,7 +6560,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6573,10 +6575,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6584,7 +6586,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6686,7 +6688,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6790,11 +6792,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -6819,7 +6821,7 @@
         <v>96</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>94</v>
@@ -6894,7 +6896,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6920,23 +6922,23 @@
         <v>67</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>42</v>
@@ -6957,10 +6959,10 @@
         <v>71</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -6992,7 +6994,7 @@
         <v>88</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7000,7 +7002,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7023,13 +7025,13 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7094,7 +7096,7 @@
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7102,7 +7104,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7125,19 +7127,19 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -7186,7 +7188,7 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7201,10 +7203,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7212,7 +7214,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7314,7 +7316,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7418,11 +7420,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7447,7 +7449,7 @@
         <v>96</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>94</v>
@@ -7522,7 +7524,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7548,10 +7550,10 @@
         <v>115</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
@@ -7609,7 +7611,7 @@
       </c>
       <c r="AG59" s="2"/>
       <c r="AH59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>42</v>
@@ -7626,7 +7628,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7649,19 +7651,19 @@
         <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7721,10 +7723,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7732,7 +7734,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7758,13 +7760,13 @@
         <v>115</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>246</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>248</v>
@@ -7836,7 +7838,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7859,19 +7861,19 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -7931,10 +7933,10 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -7942,7 +7944,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8044,7 +8046,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8148,11 +8150,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8177,7 +8179,7 @@
         <v>96</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>94</v>
@@ -8252,7 +8254,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8275,13 +8277,13 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8337,16 +8339,16 @@
       </c>
       <c r="AG66" s="2"/>
       <c r="AH66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8354,7 +8356,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8377,13 +8379,13 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8439,16 +8441,16 @@
       </c>
       <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8456,7 +8458,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8482,16 +8484,16 @@
         <v>115</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -8519,10 +8521,10 @@
         <v>128</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
@@ -8551,10 +8553,10 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8562,7 +8564,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8585,17 +8587,17 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8658,7 +8660,7 @@
         <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8666,7 +8668,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8692,10 +8694,10 @@
         <v>163</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8757,10 +8759,10 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
